--- a/static/excels/Media.xlsx
+++ b/static/excels/Media.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idaca\DjangoProjects\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idaca\DjangoProjects\wtp\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A996C647-57A7-407F-B4A9-5222037AB390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA7393E7-D376-42C2-AE0E-FA2554AD2A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2460" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Media" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Media">Media!$A$1:$E$53</definedName>
+    <definedName name="Media">Media!$A$1:$C$53</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -406,13 +406,13 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -420,576 +420,576 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
+      <c r="B9">
         <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
+      <c r="B10">
         <v>2</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
+      <c r="B12">
         <v>10</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
+      <c r="B13">
         <v>20</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
+      <c r="B14">
         <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
+      <c r="E15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
+      <c r="B17">
         <v>10</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
+      <c r="E18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
+      <c r="E19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>8</v>
+      <c r="E21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
+      <c r="E22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
+      <c r="B23">
         <v>7</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
+      <c r="B24">
         <v>7</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
+      <c r="E25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
+      <c r="B26">
         <v>8</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
+      <c r="B27">
         <v>8</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>18</v>
+      <c r="E28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
+      <c r="B29">
         <v>18</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
+      <c r="B30">
         <v>18</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>19</v>
+      <c r="E31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
+      <c r="B32">
         <v>19</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
+      <c r="B33">
         <v>19</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
         <v>11</v>
       </c>
     </row>
@@ -997,16 +997,16 @@
       <c r="A35">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
+      <c r="E35" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1014,33 +1014,33 @@
       <c r="A36">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>11</v>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37">
+      <c r="E37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1048,50 +1048,50 @@
       <c r="A38">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>12</v>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>12</v>
+      <c r="E39" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1099,221 +1099,221 @@
       <c r="A41">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>12</v>
+      <c r="E41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
+      <c r="B42">
         <v>13</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>13</v>
+      <c r="E43" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
+      <c r="B44">
         <v>13</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
         <v>0</v>
       </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <v>13</v>
+      <c r="E45" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
+      <c r="B46">
         <v>15</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
         <v>2</v>
       </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>15</v>
+      <c r="E47" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48">
+      <c r="B48">
         <v>15</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>53</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
         <v>0</v>
       </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49">
-        <v>15</v>
+      <c r="E49" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>54</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50">
+      <c r="B50">
         <v>17</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>55</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
         <v>2</v>
       </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51">
-        <v>17</v>
+      <c r="E51" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52">
+      <c r="B52">
         <v>17</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>57</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
         <v>0</v>
       </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>17</v>
+      <c r="E53" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
